--- a/XlsToXmlIdentityData/Identity.xlsx
+++ b/XlsToXmlIdentityData/Identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admi\source\repos\XlsToXmlIdentityData\XlsToXmlIdentityData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slamotin\source\repos\Slamotin\XlsToXmlIdentityData\XlsToXmlIdentityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5850FB2-35B5-4185-92DE-3D1F00A84F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC972801-B55A-4F6C-8B76-E4CA10D307D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>ФИО</t>
   </si>
@@ -74,16 +74,106 @@
   </si>
   <si>
     <t>02.02.1971</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>СНИЛС</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Серия паспорта</t>
+  </si>
+  <si>
+    <t>Номер пастпорта</t>
+  </si>
+  <si>
+    <t>Дата выдачи паспорта</t>
+  </si>
+  <si>
+    <t>Кто выдал паспорт</t>
+  </si>
+  <si>
+    <t>Адрес регистрации</t>
+  </si>
+  <si>
+    <t>Почтовый индекс</t>
+  </si>
+  <si>
+    <t>Название банка</t>
+  </si>
+  <si>
+    <t>БИК банка</t>
+  </si>
+  <si>
+    <t>Лицевой счет</t>
+  </si>
+  <si>
+    <t>Муж</t>
+  </si>
+  <si>
+    <t>000000000000</t>
+  </si>
+  <si>
+    <t>00000000000</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>2002-07-08</t>
+  </si>
+  <si>
+    <t>000-000 ОВД Московского округа г.Калуги</t>
+  </si>
+  <si>
+    <t>091da52c-0db2-4331-abd7-3fc715f3316f</t>
+  </si>
+  <si>
+    <t>СМОЛЕНСКОЕ ОТДЕЛЕНИЕ N8609 ПАО СБЕРБАНК</t>
+  </si>
+  <si>
+    <t>00000000000000000000</t>
+  </si>
+  <si>
+    <t>00000000001</t>
+  </si>
+  <si>
+    <t>2002-07-09</t>
+  </si>
+  <si>
+    <t>00000000000000000001</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>000000000001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -391,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +496,7 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +512,44 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;" "&amp;C2&amp;" "&amp;D2</f>
         <v>Иванов Иван Иванович</v>
@@ -439,8 +566,44 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>248007</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2">
+        <v>46614632</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>B3&amp;" "&amp;C3&amp;" "&amp;D3</f>
         <v>Александров Александр Александрович</v>
@@ -457,14 +620,55 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3">
+        <v>248008</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3">
+        <v>46614633</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>B4&amp;" "&amp;C4&amp;" "&amp;D4</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>